--- a/TRF.xlsx
+++ b/TRF.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,22 +460,22 @@
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="29" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="43" customWidth="1" min="5" max="5"/>
     <col width="24" customWidth="1" min="6" max="6"/>
-    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="103" customWidth="1" min="7" max="7"/>
     <col width="19" customWidth="1" min="8" max="8"/>
-    <col width="18" customWidth="1" min="9" max="9"/>
+    <col width="74" customWidth="1" min="9" max="9"/>
     <col width="21" customWidth="1" min="10" max="10"/>
-    <col width="17" customWidth="1" min="11" max="11"/>
-    <col width="38" customWidth="1" min="12" max="12"/>
+    <col width="18" customWidth="1" min="11" max="11"/>
+    <col width="39" customWidth="1" min="12" max="12"/>
     <col width="15" customWidth="1" min="13" max="13"/>
-    <col width="15" customWidth="1" min="14" max="14"/>
-    <col width="15" customWidth="1" min="15" max="15"/>
+    <col width="44" customWidth="1" min="14" max="14"/>
+    <col width="19" customWidth="1" min="15" max="15"/>
     <col width="15" customWidth="1" min="16" max="16"/>
     <col width="15" customWidth="1" min="17" max="17"/>
-    <col width="15" customWidth="1" min="18" max="18"/>
+    <col width="16" customWidth="1" min="18" max="18"/>
     <col width="15" customWidth="1" min="19" max="19"/>
     <col width="15" customWidth="1" min="20" max="20"/>
     <col width="18" customWidth="1" min="21" max="21"/>
@@ -896,6 +896,231 @@
         </is>
       </c>
     </row>
+    <row r="6" ht="90" customHeight="1">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>TL-2545496</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>25-5055</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>FINISHING</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>INDOOR</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="n"/>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L6" s="3" t="n"/>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="N6" s="3" t="n"/>
+      <c r="O6" s="3" t="n"/>
+      <c r="P6" s="3" t="n"/>
+      <c r="Q6" s="3" t="n"/>
+      <c r="R6" s="3" t="n"/>
+      <c r="S6" s="3" t="n"/>
+      <c r="T6" s="3" t="n"/>
+      <c r="U6" s="3" t="inlineStr">
+        <is>
+          <t>08/02/2025 14:13</t>
+        </is>
+      </c>
+      <c r="V6" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="W6" s="3" t="n"/>
+      <c r="X6" s="3" t="n"/>
+      <c r="Y6" s="3" t="inlineStr">
+        <is>
+          <t>http://103.77.166.187:2004/update?report=25-5055</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="90" customHeight="1">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>TL-2520195</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>25-5056</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>FINISHING</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>INDOOR</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="n"/>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L7" s="3" t="n"/>
+      <c r="M7" s="3" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="N7" s="3" t="n"/>
+      <c r="O7" s="3" t="n"/>
+      <c r="P7" s="3" t="n"/>
+      <c r="Q7" s="3" t="n"/>
+      <c r="R7" s="3" t="n"/>
+      <c r="S7" s="3" t="n"/>
+      <c r="T7" s="3" t="n"/>
+      <c r="U7" s="3" t="inlineStr">
+        <is>
+          <t>08/02/2025 14:13</t>
+        </is>
+      </c>
+      <c r="V7" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="W7" s="3" t="n"/>
+      <c r="X7" s="3" t="n"/>
+      <c r="Y7" s="3" t="inlineStr">
+        <is>
+          <t>http://103.77.166.187:2004/update?report=25-5056</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="90" customHeight="1">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>TL-2573780</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>25-5057</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>001421-AB</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>TRANSIT</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>MAHOGANCY AND BRASS ROUND SIDE TABLE WITH TRAY</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>INDOOR</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="n"/>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>LÊ THỊ MỸ NHIÊN</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="inlineStr">
+        <is>
+          <t>CAR2</t>
+        </is>
+      </c>
+      <c r="L8" s="3" t="n"/>
+      <c r="M8" s="3" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="N8" s="3" t="n"/>
+      <c r="O8" s="3" t="n"/>
+      <c r="P8" s="3" t="n"/>
+      <c r="Q8" s="3" t="n"/>
+      <c r="R8" s="3" t="n"/>
+      <c r="S8" s="3" t="n"/>
+      <c r="T8" s="3" t="n"/>
+      <c r="U8" s="3" t="inlineStr">
+        <is>
+          <t>08/02/2025 14:14</t>
+        </is>
+      </c>
+      <c r="V8" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="W8" s="3" t="n"/>
+      <c r="X8" s="3" t="n"/>
+      <c r="Y8" s="3" t="inlineStr">
+        <is>
+          <t>http://103.77.166.187:2004/update?report=25-5057</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
